--- a/Tables/t3_hetero_female.xlsx
+++ b/Tables/t3_hetero_female.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
   <si>
     <t/>
   </si>
@@ -21,10 +21,19 @@
     <t>Outcome</t>
   </si>
   <si>
+    <t>Male condom attitudes index</t>
+  </si>
+  <si>
     <t>Used male condom at most recent sex (0/1)</t>
   </si>
   <si>
-    <t>Male condom attitudes index</t>
+    <t>Contraceptive knowledge index</t>
+  </si>
+  <si>
+    <t>Modern contraceptive methods known (n)</t>
+  </si>
+  <si>
+    <t>Discussed contraceptive use with recent partner (0/1)</t>
   </si>
   <si>
     <t>Can identify a female condom (0/1)</t>
@@ -45,25 +54,25 @@
     <t>Used a female condom at most recent sex (0/1)</t>
   </si>
   <si>
-    <t>Contraceptive knowledge index</t>
-  </si>
-  <si>
-    <t>Modern contraceptive methods known (n)</t>
-  </si>
-  <si>
-    <t>Discussed contraceptive use with recent partner (0/1)</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
     <t>RD</t>
   </si>
   <si>
+    <t xml:space="preserve">     5.18%</t>
+  </si>
+  <si>
     <t xml:space="preserve">     5.59%</t>
   </si>
   <si>
-    <t xml:space="preserve">     5.18%</t>
+    <t xml:space="preserve">     3.23%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.12%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.55%</t>
   </si>
   <si>
     <t xml:space="preserve">     7.20%*</t>
@@ -84,13 +93,40 @@
     <t xml:space="preserve">     0.48%</t>
   </si>
   <si>
-    <t xml:space="preserve">     3.23%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.12%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.55%</t>
+    <t>95% CI</t>
+  </si>
+  <si>
+    <t>(-13.55%, 23.92%)</t>
+  </si>
+  <si>
+    <t>(-2.68%, 13.85%)</t>
+  </si>
+  <si>
+    <t>(-11.55%, 18.00%)</t>
+  </si>
+  <si>
+    <t>(-48.26%, 50.50%)</t>
+  </si>
+  <si>
+    <t>(-5.03%, 8.13%)</t>
+  </si>
+  <si>
+    <t>(0.84%, 13.56%)</t>
+  </si>
+  <si>
+    <t>(-10.42%, 6.38%)</t>
+  </si>
+  <si>
+    <t>(-17.23%, 18.48%)</t>
+  </si>
+  <si>
+    <t>(-2.55%, 5.05%)</t>
+  </si>
+  <si>
+    <t>(-1.46%, 4.14%)</t>
+  </si>
+  <si>
+    <t>(-1.81%, 2.78%)</t>
   </si>
   <si>
     <t>OR</t>
@@ -99,6 +135,9 @@
     <t>1.28</t>
   </si>
   <si>
+    <t>1.1</t>
+  </si>
+  <si>
     <t>1.45*</t>
   </si>
   <si>
@@ -114,16 +153,43 @@
     <t>1.77</t>
   </si>
   <si>
-    <t>1.1</t>
+    <t>(0.85, 1.94)</t>
+  </si>
+  <si>
+    <t>(0.76, 1.60)</t>
+  </si>
+  <si>
+    <t>(1.04, 2.02)</t>
+  </si>
+  <si>
+    <t>(0.63, 1.34)</t>
+  </si>
+  <si>
+    <t>(0.74, 1.72)</t>
+  </si>
+  <si>
+    <t>(0.75, 2.26)</t>
+  </si>
+  <si>
+    <t>(0.38, 8.30)</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
+    <t xml:space="preserve">    -0.33%</t>
+  </si>
+  <si>
     <t xml:space="preserve">    -2.24%</t>
   </si>
   <si>
-    <t xml:space="preserve">    -0.33%</t>
+    <t xml:space="preserve">     2.74%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -3.10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -2.19%</t>
   </si>
   <si>
     <t xml:space="preserve">     4.05%</t>
@@ -141,18 +207,45 @@
     <t xml:space="preserve">     0.46%</t>
   </si>
   <si>
-    <t xml:space="preserve">     2.74%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    -3.10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    -2.19%</t>
+    <t>(-11.54%, 10.87%)</t>
+  </si>
+  <si>
+    <t>(-6.37%, 1.89%)</t>
+  </si>
+  <si>
+    <t>(-7.52%, 13.00%)</t>
+  </si>
+  <si>
+    <t>(-35.76%, 29.57%)</t>
+  </si>
+  <si>
+    <t>(-8.37%, 3.99%)</t>
+  </si>
+  <si>
+    <t>(-0.99%, 9.08%)</t>
+  </si>
+  <si>
+    <t>(-5.77%, 5.64%)</t>
+  </si>
+  <si>
+    <t>(-13.01%, 12.34%)</t>
+  </si>
+  <si>
+    <t>(-0.71%, 3.42%)</t>
+  </si>
+  <si>
+    <t>(-0.64%, 1.59%)</t>
+  </si>
+  <si>
+    <t>(-0.27%, 1.19%)</t>
   </si>
   <si>
     <t>.88</t>
   </si>
   <si>
+    <t>.9</t>
+  </si>
+  <si>
     <t>1.18</t>
   </si>
   <si>
@@ -168,21 +261,54 @@
     <t>2.49</t>
   </si>
   <si>
-    <t>.9</t>
+    <t>(0.70, 1.10)</t>
+  </si>
+  <si>
+    <t>(0.66, 1.23)</t>
+  </si>
+  <si>
+    <t>(0.96, 1.46)</t>
+  </si>
+  <si>
+    <t>(0.79, 1.26)</t>
+  </si>
+  <si>
+    <t>(0.87, 2.07)</t>
+  </si>
+  <si>
+    <t>(0.64, 2.88)</t>
+  </si>
+  <si>
+    <t>(0.42, 14.88)</t>
   </si>
   <si>
     <t>P-value</t>
   </si>
   <si>
+    <t>0.526</t>
+  </si>
+  <si>
     <t>0.063</t>
   </si>
   <si>
+    <t>0.949</t>
+  </si>
+  <si>
+    <t>0.869</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
     <t>0.194</t>
   </si>
   <si>
     <t>0.716</t>
   </si>
   <si>
+    <t>0.926</t>
+  </si>
+  <si>
     <t>0.556</t>
   </si>
   <si>
@@ -190,9 +316,6 @@
   </si>
   <si>
     <t>0.781</t>
-  </si>
-  <si>
-    <t>0.365</t>
   </si>
 </sst>
 </file>
@@ -236,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:J13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -250,12 +373,24 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -270,13 +405,25 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -290,13 +437,25 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -307,16 +466,28 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5">
@@ -327,16 +498,28 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -347,16 +530,28 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -367,16 +562,28 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -387,16 +594,28 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -407,16 +626,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -427,16 +658,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11">
@@ -447,16 +690,28 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -467,16 +722,28 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -487,16 +754,28 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
